--- a/biology/Médecine/Quantiferon/Quantiferon.xlsx
+++ b/biology/Médecine/Quantiferon/Quantiferon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les IGRAs (acronyme anglais signifiant Interferon-Gamma Release Assays) sont des tests diagnostiques de l'infection tuberculeuse latente (ITL).
 Ce sont des marqueurs indirects de l'infection à mycobacterium tuberculosis qui montrent la présence d'une réaction immunitaire à médiation cellulaire à celle-ci. 
@@ -494,7 +506,7 @@
 Des faux négatifs, concernant jusqu'à 25 % des malades, indiquant donc qu'un résultat négatif n'élimine pas une tuberculose.
 Comme cité avant, et à l'inverse de l'intradermoréaction à la tuberculine, les résultats des IGRAs ne sont pas affectés par le statut vaccinal BCG (Bacille de Calmette et Guérin). Cette propriété rend les IGRAs utiles pour l'évaluation d'une ITL chez les individus vaccinés, en particulier dans les cas où le vaccin a eu lieu après l'enfance, ou que de nombreuses vaccinations BCG ont été réalisées (rappels).
 À l'inverse, la spécificité de l'intradermoréaction à la tuberculine dépend de l'ancienneté du vaccin et des cas où celui-ci a été donné de façon répétée (rappels).
-Le quantiFERON est le nom déposé du test de dépistage de l'infection tuberculeuse latente fabriqué par QIAGEN[1].
+Le quantiFERON est le nom déposé du test de dépistage de l'infection tuberculeuse latente fabriqué par QIAGEN.
 </t>
         </is>
       </c>
